--- a/Engineering/2018-2019/Project Field Safety/Costs.xlsx
+++ b/Engineering/2018-2019/Project Field Safety/Costs.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10123"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNHSEDS\Engineering\2018-2019\Project Safety\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silasjohnson/Documents/GitHub/UNHSEDS/Engineering/2018-2019/Project Field Safety/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5277C4-0973-FD44-B6F2-C4A3CD899740}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24860" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -39,9 +45,6 @@
   </si>
   <si>
     <t>Bags</t>
-  </si>
-  <si>
-    <t>100 Cubic Yards</t>
   </si>
   <si>
     <r>
@@ -55,7 +58,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Control Center – 500 Bags</t>
+      <t>Launch Pad – 750 Bags</t>
     </r>
   </si>
   <si>
@@ -70,22 +73,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Launch Pad – 800 Bags</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spectator Shelter – 100 Bags</t>
+      <t>Control Center – 808 Bags</t>
     </r>
   </si>
   <si>
@@ -100,30 +88,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TOTAL: 1,400 Bags of Sand</t>
+      <t>TOTAL: 1,558 Bags of Sand</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COST: $850.00</t>
-    </r>
+    <t>1600 sand bags * 45 lbs  = 72000 lbs (upper end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 dollars per ton - Brox industries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 beams </t>
+  </si>
+  <si>
+    <t>Misc 2x4s, shovels, supplies</t>
+  </si>
+  <si>
+    <t>Total = $1620</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +151,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
@@ -189,6 +190,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,19 +471,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="48.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.5" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
+    <col min="3" max="3" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,56 +496,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <f>80*13</f>
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Engineering/2018-2019/Project Field Safety/Costs.xlsx
+++ b/Engineering/2018-2019/Project Field Safety/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silasjohnson/Documents/GitHub/UNHSEDS/Engineering/2018-2019/Project Field Safety/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5277C4-0973-FD44-B6F2-C4A3CD899740}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B37E92-893D-7A4F-9372-78B83CB3ECA4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24860" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
